--- a/EssilorLuxottica Projects/LUX - 01 - Merge Vendor Open Items Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Merge Vendor Open Items Reports/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica\EssilorLuxottica Projects\LUX - 01 - Merge Vendor Open Items Reports\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Merge Vendor Open Items Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA9CF12-3649-46EE-BFE3-CC6D608CEE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04338F1E-809D-4884-AA70-0BF187B51B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2580" windowWidth="17415" windowHeight="11895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -156,42 +156,12 @@
     <t>strComponentRoot</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica\EssilorLuxottica Projects\LUX - 01 - Merge Vendor Open Items Reports\Components\</t>
-  </si>
-  <si>
     <t>strSubProcessRoot</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica\EssilorLuxottica Projects\LUX - 01 - Merge Vendor Open Items Reports\Subprocesses\</t>
-  </si>
-  <si>
     <t>strProcessRoot</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica\EssilorLuxottica Projects\LUX - 01 - Merge Vendor Open Items Reports\Processes\</t>
-  </si>
-  <si>
-    <t>LUX-01_ReportsToMergeOriginalFolder</t>
-  </si>
-  <si>
-    <t>LUX-01_MergedReportsNewFolder</t>
-  </si>
-  <si>
-    <t>LUX-01_MasterReportFolder</t>
-  </si>
-  <si>
-    <t>LUX-01_ReportsSheetToMerge</t>
-  </si>
-  <si>
-    <t>LUX-01_MasterReportNameFormat</t>
-  </si>
-  <si>
-    <t>LUX-01_MasterReportTemplateFolder</t>
-  </si>
-  <si>
-    <t>LUX-01_MasterReportTemplateName</t>
-  </si>
-  <si>
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
@@ -201,42 +171,9 @@
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
-    <t>LUX-01_ToEmailAddress</t>
-  </si>
-  <si>
-    <t>LUX-01_FromEmailCredentials</t>
-  </si>
-  <si>
-    <t>LUX-01_EmailPort</t>
-  </si>
-  <si>
-    <t>LUX-01_EmailServer</t>
-  </si>
-  <si>
-    <t>LUX-01_CCEmailAdress</t>
-  </si>
-  <si>
-    <t>Ess.LUX-01_ReportsToMergeOriginalFolder</t>
-  </si>
-  <si>
-    <t>Ess.LUX-01_MergedReportsNewFolder</t>
-  </si>
-  <si>
-    <t>Ess.LUX-01_MasterReportFolder</t>
-  </si>
-  <si>
     <t>Ess.LUX-01_ReportsSheetToMerge</t>
   </si>
   <si>
-    <t>Ess.LUX-01_MasterReportNameFormat</t>
-  </si>
-  <si>
-    <t>Ess.LUX-01_MasterReportTemplateFolder</t>
-  </si>
-  <si>
-    <t>Ess.LUX-01_MasterReportTemplateName</t>
-  </si>
-  <si>
     <t>Ess.LUX-01_ToEmailAddress</t>
   </si>
   <si>
@@ -253,13 +190,76 @@
   </si>
   <si>
     <t>reports folder</t>
+  </si>
+  <si>
+    <t>strReportsToMergeOriginalFolder</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrOutputFolderPath</t>
+  </si>
+  <si>
+    <t>strMergedReportsNewFolder</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrHistoryPath</t>
+  </si>
+  <si>
+    <t>strFinalReportFolder</t>
+  </si>
+  <si>
+    <t>strReportsSheetToMerge</t>
+  </si>
+  <si>
+    <t>strFinalReportNameFormat</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_FinalReportNameFormat</t>
+  </si>
+  <si>
+    <t>strFinalReportTemplateFolder</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_FinalReportTemplateFolder</t>
+  </si>
+  <si>
+    <t>strFinalReportTemplateName</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_FinalReportTemplateName</t>
+  </si>
+  <si>
+    <t>strToEmailAddress</t>
+  </si>
+  <si>
+    <t>strEmailPort</t>
+  </si>
+  <si>
+    <t>strEmailServer</t>
+  </si>
+  <si>
+    <t>strCCEmailAdress</t>
+  </si>
+  <si>
+    <t>strFromEmailCredentials</t>
+  </si>
+  <si>
+    <t>C:\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Merge Vendor Open Items Reports\Subprocesses\</t>
+  </si>
+  <si>
+    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Merge Vendor Open Items Reports\Processes\</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\LUX-01-Vendor Open Items Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -289,6 +289,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,10 +313,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -319,8 +326,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -635,14 +644,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="113.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.5703125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -685,13 +694,13 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -700,36 +709,40 @@
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -1748,9 +1761,10 @@
     <hyperlink ref="B6" r:id="rId1" display="../Components/" xr:uid="{582C18F1-560D-40AA-BBE4-F2E2A3873E0F}"/>
     <hyperlink ref="B7" r:id="rId2" display="../Subprocesses/" xr:uid="{4804F1C4-B7C3-469B-B4C2-91F05E67915F}"/>
     <hyperlink ref="B8" r:id="rId3" display="../Processes/" xr:uid="{BE204389-0BB7-44F7-A907-16A78749CC7B}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{6B014D8D-0168-4912-8E92-29A2A856AB29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2972,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3017,93 +3031,88 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/EssilorLuxottica Projects/LUX - 01 - Merge Vendor Open Items Reports/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 01 - Merge Vendor Open Items Reports/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Merge Vendor Open Items Reports\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Merge Vendor Open Items Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04338F1E-809D-4884-AA70-0BF187B51B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809CC359-1533-4084-AFEA-5268F440A452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -243,23 +243,29 @@
     <t>strFromEmailCredentials</t>
   </si>
   <si>
-    <t>C:\EssilorLuxottica Projects\Components\</t>
-  </si>
-  <si>
-    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Merge Vendor Open Items Reports\Subprocesses\</t>
-  </si>
-  <si>
-    <t>C:\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Merge Vendor Open Items Reports\Processes\</t>
-  </si>
-  <si>
-    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\LUX-01-Vendor Open Items Report</t>
+    <t>Ess.LUX-01_StrTempFolderPath</t>
+  </si>
+  <si>
+    <t>strTempFolderPath</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Merge Vendor Open Items Reports\Processes\</t>
+  </si>
+  <si>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-01_Vendor Open Items Report\LUX - 01 - Merge Vendor Open Items Reports\Subprocesses\</t>
+  </si>
+  <si>
+    <t>Ess.LUX-01_StrFinalReportFolder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -274,13 +280,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -315,18 +314,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -699,7 +697,7 @@
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -708,24 +706,24 @@
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>73</v>
+      <c r="B6" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>74</v>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>75</v>
+      <c r="B8" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,12 +735,8 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -758,11 +752,9 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -773,12 +765,8 @@
     <row r="18" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
+    <row r="19" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1754,17 +1742,14 @@
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="../Components/" xr:uid="{582C18F1-560D-40AA-BBE4-F2E2A3873E0F}"/>
-    <hyperlink ref="B7" r:id="rId2" display="../Subprocesses/" xr:uid="{4804F1C4-B7C3-469B-B4C2-91F05E67915F}"/>
-    <hyperlink ref="B8" r:id="rId3" display="../Processes/" xr:uid="{BE204389-0BB7-44F7-A907-16A78749CC7B}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{6B014D8D-0168-4912-8E92-29A2A856AB29}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{582C18F1-560D-40AA-BBE4-F2E2A3873E0F}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{BE204389-0BB7-44F7-A907-16A78749CC7B}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{5639A565-392D-4B56-B573-F58A9ED37536}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2986,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3034,12 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -3116,7 +3106,14 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
